--- a/model_analysis.xlsx
+++ b/model_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31a3af44735637da/BWSI piPACT/piPACT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="11_F25DC773A252ABDACC1048834919455E5ADE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E1D6725D-608C-4199-B852-54A492F333FE}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="11_F25DC773A252ABDACC1048834919455E5ADE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FA7BB63-D003-414C-801C-CAAC994B4011}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="41">
   <si>
     <t>Model</t>
   </si>
@@ -117,13 +117,37 @@
     <t>(Implemented with )</t>
   </si>
   <si>
-    <t>n_estimators=396, max_depth=5, min_child_weight=3, gamma=0., colsample_bytree=0.7, subsample=0.8, reg_alpha=4, reg_lamba=0</t>
-  </si>
-  <si>
     <t>n_estimators=37, max_depth=5, min_child_weight=1, gamma=0.1, colsample_bytree=0.01, subsample=0.8, reg_alpha=5, reg_lambda=0</t>
   </si>
   <si>
     <t>n_estimators=2139, max_depth=3, min_child_weight=3, gamma=0.1, colsample_bytree=0.01, subsample=0.2, reg_alpha=0.01, reg_lambda=0</t>
+  </si>
+  <si>
+    <t>n_estimators=3, max_depth=3, min_child_weight=1, gamma=0, colsample_bytree=0.01, subsample=0.1, reg_alpha=0, reg_lambda=0</t>
+  </si>
+  <si>
+    <t>n_estimators=396, max_depth=5, min_child_weight=3, gamma=0, colsample_bytree=0.7, subsample=0.8, reg_alpha=4, reg_lamba=0</t>
+  </si>
+  <si>
+    <t>n_neighbors=1381, metric='manhattan'</t>
+  </si>
+  <si>
+    <t>n_estimators=485, max_depth=3, min_child_weight=1, gamma=0, colsample_bytree=0.01, subsample=0.03, reg_alpha=0, reg_lambda=0</t>
+  </si>
+  <si>
+    <t>n_neighbors=1081, metric='manhattan'</t>
+  </si>
+  <si>
+    <t>n_estimators=2815, max_depth=4, min_child_weight=2, gamma=0.2, colsample_bytree=0.01, subsample=0.76, reg_alpha=0.01, reg_lambda=0</t>
+  </si>
+  <si>
+    <t>n_estimators=733, max_depth=4, min_child_weight=3, gamma=0.1, colsample_bytree=0.01, subsample=0.83, reg_alpha=0.01, reg_lambda=0</t>
+  </si>
+  <si>
+    <t>n_neighbors=19, metric='manhattan', n_components=2</t>
+  </si>
+  <si>
+    <t>n_estimators=2445, max_depth=5, min_child_weight=3, gamma=0.3, colsample_bytree=0.67, subsample=0.78, reg_alpha=0, reg_lambda=0</t>
   </si>
 </sst>
 </file>
@@ -487,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +522,7 @@
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="62.5703125" customWidth="1"/>
     <col min="5" max="5" width="28" style="2" customWidth="1"/>
-    <col min="6" max="6" width="119" customWidth="1"/>
+    <col min="6" max="6" width="126.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -658,6 +682,12 @@
       <c r="D10" t="s">
         <v>19</v>
       </c>
+      <c r="E10" s="2">
+        <v>0.58615555555555499</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -726,6 +756,12 @@
       <c r="D14" t="s">
         <v>19</v>
       </c>
+      <c r="E14" s="2">
+        <v>0.67968333333333297</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -738,6 +774,12 @@
       <c r="D15" t="s">
         <v>19</v>
       </c>
+      <c r="E15" s="2">
+        <v>0.97416666666666596</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -776,6 +818,12 @@
       <c r="D18" t="s">
         <v>26</v>
       </c>
+      <c r="E18" s="2">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -794,7 +842,7 @@
         <v>0.9163</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,7 +860,7 @@
         <v>0.62690000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -830,7 +878,7 @@
         <v>0.94850000000000001</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,6 +892,12 @@
       <c r="D22" t="s">
         <v>26</v>
       </c>
+      <c r="E22" s="2">
+        <v>0.6794</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -856,6 +910,12 @@
       <c r="D23" t="s">
         <v>26</v>
       </c>
+      <c r="E23" s="2">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -868,6 +928,12 @@
       <c r="D24" t="s">
         <v>26</v>
       </c>
+      <c r="E24" s="2">
+        <v>0.76989300000000005</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -879,6 +945,12 @@
       </c>
       <c r="D25" t="s">
         <v>26</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.9819</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">

--- a/model_analysis.xlsx
+++ b/model_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31a3af44735637da/BWSI piPACT/piPACT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="11_F25DC773A252ABDACC1048834919455E5ADE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FA7BB63-D003-414C-801C-CAAC994B4011}"/>
+  <xr:revisionPtr revIDLastSave="489" documentId="11_F25DC773A252ABDACC1048834919455E5ADE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A9A3C2FB-2974-4C27-B4C0-C990950CF442}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="57">
   <si>
     <t>Model</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Labels</t>
-  </si>
-  <si>
-    <t>Linear Classification</t>
   </si>
   <si>
     <t>RSSI</t>
@@ -78,12 +75,6 @@
     <t>bandwidth=0.5</t>
   </si>
   <si>
-    <t>Neural Network</t>
-  </si>
-  <si>
-    <t>Feature Interactions</t>
-  </si>
-  <si>
     <t>MinMax Scaling, Feature Interactions, Principal Component Analysis</t>
   </si>
   <si>
@@ -91,12 +82,6 @@
   </si>
   <si>
     <t>bandwidth=0.625</t>
-  </si>
-  <si>
-    <t>(Implemented w/ Tensorflow)</t>
-  </si>
-  <si>
-    <t>(Implemented w/ Sklearn)</t>
   </si>
   <si>
     <t>(Implemented w/ XGBoost Sklearn API)</t>
@@ -109,12 +94,6 @@
   </si>
   <si>
     <t>n_neighbors=17, metric='manhattan', n_components=3</t>
-  </si>
-  <si>
-    <t>Log Shadowing Classification</t>
-  </si>
-  <si>
-    <t>(Implemented with )</t>
   </si>
   <si>
     <t>n_estimators=37, max_depth=5, min_child_weight=1, gamma=0.1, colsample_bytree=0.01, subsample=0.8, reg_alpha=5, reg_lambda=0</t>
@@ -148,6 +127,75 @@
   </si>
   <si>
     <t>n_estimators=2445, max_depth=5, min_child_weight=3, gamma=0.3, colsample_bytree=0.67, subsample=0.78, reg_alpha=0, reg_lambda=0</t>
+  </si>
+  <si>
+    <t>n_neighbors=119, metric='manhattan', n_components=2</t>
+  </si>
+  <si>
+    <t>Support Vector Machines</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>n_neighbors=9, metric='manhattan', n_components=5</t>
+  </si>
+  <si>
+    <t>MinMax Scaling</t>
+  </si>
+  <si>
+    <t>C=1, kernel='rbf', n_components=2</t>
+  </si>
+  <si>
+    <t>C=10, kernel='rbf', n_components=5</t>
+  </si>
+  <si>
+    <t>C=10, kernel='rbf', n_components=2</t>
+  </si>
+  <si>
+    <t>C=1, kernel='rbf'</t>
+  </si>
+  <si>
+    <t>C=10, kernel='rbf', n_components=6</t>
+  </si>
+  <si>
+    <t>Ridge Classifier</t>
+  </si>
+  <si>
+    <t>alpha=0.001</t>
+  </si>
+  <si>
+    <t>C=0.0001</t>
+  </si>
+  <si>
+    <t>C=0.0001, n_components=3</t>
+  </si>
+  <si>
+    <t>alpha=0.651, n_components=2</t>
+  </si>
+  <si>
+    <t>C=0.0038, n_components=2</t>
+  </si>
+  <si>
+    <t>alpha=0.001, n_components=2</t>
+  </si>
+  <si>
+    <t>C=0.0006, n_components=2</t>
+  </si>
+  <si>
+    <t>alpha=0.001, n_components=6</t>
+  </si>
+  <si>
+    <t>C=0.4051, n_components=2</t>
+  </si>
+  <si>
+    <t>C=0.0001, n_components=2</t>
+  </si>
+  <si>
+    <t>C=0.0032</t>
+  </si>
+  <si>
+    <t>(Implemented w/ scikit-learn)</t>
   </si>
 </sst>
 </file>
@@ -229,6 +277,6087 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Logistic Regression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RSSI, Pressure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSSI, Humidity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RSSI, Humidity, Pressure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.48941111111111102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69803333333333295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54687777777777702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71076666666666599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-404C-4F48-A669-BE25146EBA63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal Parameters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RSSI, Pressure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSSI, Humidity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RSSI, Humidity, Pressure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$F$2:$F$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-404C-4F48-A669-BE25146EBA63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="737218976"/>
+        <c:axId val="737215696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="737218976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737215696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737215696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737218976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ridge</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Classification</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$10:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RSSI, Pressure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSSI, Humidity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RSSI, Humidity, Pressure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$10:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.43656666666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67261111111111105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53214444444444398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68471111111111105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13C0-43EC-9FCF-4EFECB9E19F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="737218976"/>
+        <c:axId val="737215696"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Optimal Parameters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:levelRef>
+                          <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                        </c15:levelRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$10:$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>RSSI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>RSSI, Pressure</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>RSSI, Humidity</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RSSI, Humidity, Pressure</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$2:$F$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$10:$F$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-13C0-43EC-9FCF-4EFECB9E19F6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="737218976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737215696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737215696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737218976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gradient</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Boosted Trees</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$34:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RSSI, Pressure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSSI, Humidity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RSSI, Humidity, Pressure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$34:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.59760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94850000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C52-425F-B955-67FDE544288A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="737218976"/>
+        <c:axId val="737215696"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Optimal Parameters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:levelRef>
+                          <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                        </c15:levelRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$34:$B$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>RSSI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>RSSI, Pressure</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>RSSI, Humidity</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RSSI, Humidity, Pressure</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$2:$F$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$34:$F$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-6C52-425F-B955-67FDE544288A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="737218976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737215696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737215696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737218976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Naive Bayes w/ KDE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$42:$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RSSI, Pressure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSSI, Humidity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RSSI, Humidity, Pressure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$42:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.59844439999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90921111111111097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.632711111111111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91767777777777704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B36-44C7-A879-B9076FB28BA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="737218976"/>
+        <c:axId val="737215696"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Optimal Parameters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:levelRef>
+                          <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                        </c15:levelRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$42:$B$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>RSSI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>RSSI, Pressure</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>RSSI, Humidity</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RSSI, Humidity, Pressure</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$2:$F$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$42:$F$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-6B36-44C7-A879-B9076FB28BA9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="737218976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737215696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737215696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737218976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K-Nearest Neighbors</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$26:$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RSSI, Pressure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSSI, Humidity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RSSI, Humidity, Pressure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$26:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.58615555555555499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93636666666666601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63051111111111102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93189999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E10-473C-8014-92058587B2ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="737218976"/>
+        <c:axId val="737215696"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Optimal Parameters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:levelRef>
+                          <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                        </c15:levelRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$26:$B$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>RSSI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>RSSI, Pressure</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>RSSI, Humidity</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RSSI, Humidity, Pressure</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$2:$F$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$26:$F$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-1E10-473C-8014-92058587B2ED}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="737218976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737215696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737215696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737218976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Support Vector Classification</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$18:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RSSI, Pressure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSSI, Humidity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RSSI, Humidity, Pressure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$18:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.59606666666666597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89795555555555495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.622677777777777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90192222222222196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-041D-4993-B195-39BC2FC626D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="737218976"/>
+        <c:axId val="737215696"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Optimal Parameters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:levelRef>
+                          <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                        </c15:levelRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$18:$B$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>RSSI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>RSSI, Pressure</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>RSSI, Humidity</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RSSI, Humidity, Pressure</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$2:$F$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$18:$F$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-041D-4993-B195-39BC2FC626D4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="737218976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737215696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737215696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737218976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1476375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609AB0CF-947C-415B-8D8B-4DC748EB3FB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2905125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A740CFE5-F802-4E06-91BB-41DF0A5022AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F1250F-DDAB-499C-BDD6-8D4EE7BFEE0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3171825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C048018B-E0B3-4C1D-91DB-B495C2E4C6F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3171825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A7A62E-277D-4670-B1F1-E47A989C11B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78EBA61F-8078-4E6C-BAA4-BAF8C4345535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,8 +6640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,418 +6665,454 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2">
-        <v>0.53266670000000005</v>
+        <v>0.48941111111111102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2">
-        <v>0.85322229999999999</v>
+        <v>0.69803333333333295</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2">
-        <v>0.62111110000000003</v>
+        <v>0.54687777777777702</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2">
-        <v>0.89877779999999996</v>
+        <v>0.71076666666666599</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2">
-        <v>0.58450000000000002</v>
+        <v>0.536266666666666</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2">
-        <v>0.92666669999999995</v>
+        <v>0.88816666666666599</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2">
-        <v>0.68066669999999996</v>
+        <v>0.61119999999999997</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
-        <v>0.95950000000000002</v>
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2">
-        <v>0.58615555555555499</v>
+        <v>0.43656666666666599</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2">
-        <v>0.93636666666666601</v>
+        <v>0.67261111111111105</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2">
-        <v>0.63051111111111102</v>
+        <v>0.53214444444444398</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2">
-        <v>0.93189999999999995</v>
+        <v>0.68471111111111105</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2">
-        <v>0.67968333333333297</v>
+        <v>0.536266666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2">
-        <v>0.97416666666666596</v>
+        <v>0.87641666666666596</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.61178333333333301</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.84816666666666596</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2">
-        <v>0.59760000000000002</v>
+        <v>0.59606666666666597</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2">
-        <v>0.9163</v>
+        <v>0.89795555555555495</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2">
-        <v>0.62690000000000001</v>
+        <v>0.622677777777777</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2">
-        <v>0.94850000000000001</v>
+        <v>0.90192222222222196</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2">
-        <v>0.6794</v>
+        <v>0.67503333333333304</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2">
-        <v>0.97340000000000004</v>
+        <v>0.95831666666666604</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2">
-        <v>0.76989300000000005</v>
+        <v>0.69128333333333303</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2">
-        <v>0.9819</v>
+        <v>0.96083333333333298</v>
       </c>
       <c r="F25" t="s">
         <v>40</v>
@@ -955,304 +7120,455 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2">
-        <v>0.59844439999999999</v>
+        <v>0.58615555555555499</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E27" s="2">
-        <v>0.90921110000000005</v>
+        <v>0.93636666666666601</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2">
-        <v>0.97813329999999998</v>
+        <v>0.63051111111111102</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2">
-        <v>0.91459990000000002</v>
+        <v>0.93189999999999995</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2">
-        <v>0.68053330000000001</v>
+        <v>0.67968333333333297</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E31" s="2">
-        <v>0.96151666666666602</v>
+        <v>0.97416666666666596</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E32" s="2">
-        <v>0.70193333333333296</v>
+        <v>0.69986666666666597</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E33" s="2">
-        <v>0.9648833</v>
+        <v>0.96926666666666605</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.9163</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.62690000000000001</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" t="s">
-        <v>8</v>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.94850000000000001</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.6794</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.76989300000000005</v>
+      </c>
+      <c r="F40" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.9819</v>
+      </c>
+      <c r="F41" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.59844439999999999</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.90921111111111097</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.632711111111111</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
       <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
         <v>7</v>
       </c>
-      <c r="C45" t="s">
-        <v>8</v>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.91767777777777704</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.68053330000000001</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.96151666666666602</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
       <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.70203333333333295</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" t="s">
         <v>6</v>
       </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.9648833</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/model_analysis.xlsx
+++ b/model_analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31a3af44735637da/BWSI piPACT/piPACT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\OneDrive\BWSI piPACT\piPACT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="489" documentId="11_F25DC773A252ABDACC1048834919455E5ADE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A9A3C2FB-2974-4C27-B4C0-C990950CF442}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733041A5-D202-4626-BF80-64DB7291C7AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,6 +599,1314 @@
         <c:axId val="737215696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737218976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gradient</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Boosted Trees</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$38:$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RSSI, Pressure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSSI, Humidity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RSSI, Humidity, Pressure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$38:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.6794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97340000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76989300000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2698-421F-963B-91E6C6456287}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="737218976"/>
+        <c:axId val="737215696"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Optimal Parameters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:levelRef>
+                          <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                        </c15:levelRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$38:$B$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>RSSI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>RSSI, Pressure</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>RSSI, Humidity</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RSSI, Humidity, Pressure</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$2:$F$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$38:$F$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-2698-421F-963B-91E6C6456287}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="737218976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737215696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737215696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737218976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Naive Bayes w/ KDE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$46:$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RSSI, Pressure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSSI, Humidity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RSSI, Humidity, Pressure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$46:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.68053330000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96151666666666602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70203333333333295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9648833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E118-490C-86DA-15B516DCC522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="737218976"/>
+        <c:axId val="737215696"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Optimal Parameters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:levelRef>
+                          <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                        </c15:levelRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$46:$B$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>RSSI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>RSSI, Pressure</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>RSSI, Humidity</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RSSI, Humidity, Pressure</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$2:$F$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$46:$F$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-E118-490C-86DA-15B516DCC522}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="737218976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737215696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737215696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737218976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K-Nearest Neighbors</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$30:$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RSSI, Pressure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSSI, Humidity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RSSI, Humidity, Pressure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$30:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.67968333333333297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97416666666666596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69986666666666597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96926666666666605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4587-4EB2-996E-14D6328C6AB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="737218976"/>
+        <c:axId val="737215696"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Optimal Parameters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:levelRef>
+                          <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                        </c15:levelRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$30:$B$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>RSSI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>RSSI, Pressure</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>RSSI, Humidity</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RSSI, Humidity, Pressure</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$2:$F$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$30:$F$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-4587-4EB2-996E-14D6328C6AB4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="737218976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737215696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737215696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1037,6 +2345,7 @@
         <c:axId val="737215696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2871,7 +4180,1416 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Logistic Regression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$6:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RSSI, Pressure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSSI, Humidity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RSSI, Humidity, Pressure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.536266666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88816666666666599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88890000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2124-423C-919A-24D1F173689F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal Parameters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$6:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RSSI, Pressure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSSI, Humidity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RSSI, Humidity, Pressure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$F$2:$F$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$F$6:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2124-423C-919A-24D1F173689F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="737218976"/>
+        <c:axId val="737215696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="737218976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737215696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737215696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737218976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ridge</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Classification</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$14:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RSSI, Pressure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSSI, Humidity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RSSI, Humidity, Pressure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.536266666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87641666666666596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61178333333333301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84816666666666596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4FD-4773-A11F-5EE2308A70E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="737218976"/>
+        <c:axId val="737215696"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Optimal Parameters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:levelRef>
+                          <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                        </c15:levelRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$14:$B$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>RSSI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>RSSI, Pressure</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>RSSI, Humidity</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RSSI, Humidity, Pressure</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$2:$F$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$14:$F$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-A4FD-4773-A11F-5EE2308A70E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="737218976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737215696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737215696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737218976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Support Vector Classification</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$22:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RSSI, Pressure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSSI, Humidity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RSSI, Humidity, Pressure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$2:$E$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$22:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.67503333333333304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95831666666666604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69128333333333303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96083333333333298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FD3-4651-94B5-533A774D00EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="737218976"/>
+        <c:axId val="737215696"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Optimal Parameters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$D$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:levelRef>
+                          <c15:sqref>Sheet1!$B$2:$B$49</c15:sqref>
+                        </c15:levelRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$22:$B$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>RSSI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>RSSI, Pressure</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>RSSI, Humidity</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RSSI, Humidity, Pressure</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$2:$F$49</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$22:$F$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-2FD3-4651-94B5-533A774D00EC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="737218976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737215696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737215696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737218976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3111,6 +5829,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3614,7 +6452,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4117,7 +6955,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4620,7 +7458,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5123,7 +7961,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5626,7 +8464,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6129,20 +8967,3038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1476375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6169,16 +12025,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2905125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6207,16 +12063,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1609725</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6245,16 +12101,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3171825</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6283,16 +12139,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3171825</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6321,16 +12177,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6352,6 +12208,234 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4152900</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{497CB3E9-89D6-4290-B3BA-BC22A8459585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91579ACB-4E60-4FF4-9CAB-450BE9415BE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4133850</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168CC57F-0DE6-4AA2-A7FA-58857D024EB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4124325</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD57902E-EFE4-46B3-BCF3-7B6CA8FD5A65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA67814-4E6B-4FE6-B74C-3793931EDC25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7745BF51-E6EA-4387-9E02-8B16C60BF204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6640,8 +12724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/model_analysis.xlsx
+++ b/model_analysis.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\OneDrive\BWSI piPACT\piPACT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31a3af44735637da/BWSI piPACT/piPACT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733041A5-D202-4626-BF80-64DB7291C7AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F72DBB3-1A6B-477A-99D5-2582E632919A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="17280" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -794,7 +795,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -903,7 +904,7 @@
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent4"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -1228,7 +1229,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1337,7 +1338,7 @@
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent4"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -1662,7 +1663,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1771,7 +1772,7 @@
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent4"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -4272,7 +4273,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4360,7 +4361,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4694,7 +4695,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4803,7 +4804,7 @@
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent4"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -5127,7 +5128,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5236,7 +5237,7 @@
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent4"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -5510,12 +5511,9 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -5550,12 +5548,9 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -5590,12 +5585,9 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -5830,12 +5822,9 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -5870,12 +5859,9 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -5910,12 +5896,9 @@
 </file>
 
 <file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -12724,21 +12707,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="62.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="62.5546875" customWidth="1"/>
     <col min="5" max="5" width="28" style="2" customWidth="1"/>
-    <col min="6" max="6" width="126.7109375" customWidth="1"/>
+    <col min="6" max="6" width="126.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12758,7 +12741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -12778,7 +12761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -12798,7 +12781,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -12816,7 +12799,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>6</v>
@@ -12834,7 +12817,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>3</v>
@@ -12852,7 +12835,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>4</v>
@@ -12870,7 +12853,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>5</v>
@@ -12888,7 +12871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>6</v>
@@ -12906,7 +12889,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -12926,7 +12909,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>56</v>
       </c>
@@ -12946,7 +12929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>5</v>
@@ -12964,7 +12947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>6</v>
@@ -12982,7 +12965,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>3</v>
@@ -13000,7 +12983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>4</v>
@@ -13018,7 +13001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>5</v>
@@ -13036,7 +13019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>6</v>
@@ -13054,7 +13037,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -13074,7 +13057,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
@@ -13094,7 +13077,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>5</v>
@@ -13112,7 +13095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>6</v>
@@ -13130,7 +13113,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>3</v>
@@ -13148,7 +13131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>4</v>
@@ -13166,7 +13149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>5</v>
@@ -13184,7 +13167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>6</v>
@@ -13202,7 +13185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -13222,7 +13205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -13242,7 +13225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>5</v>
@@ -13260,7 +13243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>6</v>
@@ -13278,7 +13261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>3</v>
@@ -13296,7 +13279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>4</v>
@@ -13314,7 +13297,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>5</v>
@@ -13332,7 +13315,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>6</v>
@@ -13350,7 +13333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -13370,7 +13353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -13390,7 +13373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>5</v>
@@ -13408,7 +13391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>6</v>
@@ -13426,7 +13409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>3</v>
@@ -13444,7 +13427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
         <v>4</v>
@@ -13462,7 +13445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>5</v>
@@ -13480,7 +13463,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
         <v>6</v>
@@ -13498,7 +13481,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
@@ -13518,7 +13501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
@@ -13538,7 +13521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
         <v>5</v>
@@ -13556,7 +13539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
         <v>6</v>
@@ -13574,7 +13557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
         <v>3</v>
@@ -13592,7 +13575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
         <v>4</v>
@@ -13610,7 +13593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
         <v>5</v>
@@ -13628,7 +13611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
         <v>6</v>
